--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Others\ProjFrameWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC11FA2-E2E6-4435-A7F6-4E3D4C7BFED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EC329-B098-496C-9B85-08FEF164B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>TC_ID</t>
   </si>
@@ -103,6 +103,51 @@
   </si>
   <si>
     <t>About_Detail</t>
+  </si>
+  <si>
+    <t>Sauce_product_ApiQuality</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>prashant</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>swamy</t>
+  </si>
+  <si>
+    <t>BusinessEmail</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>CompanyDetail</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>countryDetil</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>CommentDetail</t>
+  </si>
+  <si>
+    <t>sauce lab is best for practice</t>
+  </si>
+  <si>
+    <t>9087123456</t>
   </si>
 </sst>
 </file>
@@ -144,8 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,9 +486,14 @@
     <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.36328125" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +515,29 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -480,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -497,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -514,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -531,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -548,7 +622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -568,7 +642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -576,13 +650,51 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
